--- a/data/stackcachesize.xlsx
+++ b/data/stackcachesize.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -119,6 +119,9 @@
   <si>
     <t>number of register pairs</t>
   </si>
+  <si>
+    <t>UPDATED 20180301</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +136,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -198,7 +206,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -260,15 +268,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -299,6 +310,7 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -329,6 +341,7 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:F63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -669,12 +682,12 @@
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -718,7 +731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -762,12 +775,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -790,7 +803,7 @@
         <v>49.3</v>
       </c>
       <c r="H5">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="I5">
         <v>204</v>
@@ -802,7 +815,7 @@
         <v>158.19999999999999</v>
       </c>
       <c r="L5">
-        <v>205.3</v>
+        <v>216.3</v>
       </c>
       <c r="M5">
         <v>92.4</v>
@@ -811,10 +824,10 @@
         <v>101.1</v>
       </c>
       <c r="O5">
-        <v>131.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -849,7 +862,7 @@
         <v>9.9</v>
       </c>
       <c r="L6">
-        <v>19.899999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="M6">
         <v>21.2</v>
@@ -858,10 +871,10 @@
         <v>3.5</v>
       </c>
       <c r="O6">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -884,7 +897,7 @@
         <v>25.8</v>
       </c>
       <c r="H7">
-        <v>18.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I7">
         <v>143.9</v>
@@ -896,7 +909,7 @@
         <v>76.099999999999994</v>
       </c>
       <c r="L7">
-        <v>96.4</v>
+        <v>125.1</v>
       </c>
       <c r="M7">
         <v>58.8</v>
@@ -905,10 +918,10 @@
         <v>35.9</v>
       </c>
       <c r="O7">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -931,7 +944,7 @@
         <v>-0.5</v>
       </c>
       <c r="H8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I8">
         <v>-4.3</v>
@@ -943,7 +956,7 @@
         <v>5.7</v>
       </c>
       <c r="L8">
-        <v>7.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M8">
         <v>-4.7</v>
@@ -952,10 +965,10 @@
         <v>5.4</v>
       </c>
       <c r="O8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -978,7 +991,7 @@
         <v>12.2</v>
       </c>
       <c r="H9">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I9">
         <v>64.599999999999994</v>
@@ -990,7 +1003,7 @@
         <v>66.5</v>
       </c>
       <c r="L9">
-        <v>81.599999999999994</v>
+        <v>54.2</v>
       </c>
       <c r="M9">
         <v>17</v>
@@ -999,15 +1012,15 @@
         <v>56.3</v>
       </c>
       <c r="O9">
-        <v>42.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1043,7 @@
         <v>46.9</v>
       </c>
       <c r="H11">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="I11">
         <v>186.8</v>
@@ -1042,7 +1055,7 @@
         <v>139</v>
       </c>
       <c r="L11">
-        <v>197.9</v>
+        <v>203.2</v>
       </c>
       <c r="M11">
         <v>84.5</v>
@@ -1051,10 +1064,14 @@
         <v>88.8</v>
       </c>
       <c r="O11">
-        <v>115.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>115.8</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1106,7 @@
         <v>11.4</v>
       </c>
       <c r="L12">
-        <v>19.899999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="M12">
         <v>13.6</v>
@@ -1101,7 +1118,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1141,7 @@
         <v>23.5</v>
       </c>
       <c r="H13">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="I13">
         <v>122.1</v>
@@ -1136,7 +1153,7 @@
         <v>52.6</v>
       </c>
       <c r="L13">
-        <v>89</v>
+        <v>112.8</v>
       </c>
       <c r="M13">
         <v>58.4</v>
@@ -1145,10 +1162,10 @@
         <v>27</v>
       </c>
       <c r="O13">
-        <v>62.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1188,7 @@
         <v>-0.3</v>
       </c>
       <c r="H14">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="I14">
         <v>0.3</v>
@@ -1183,7 +1200,7 @@
         <v>8.5</v>
       </c>
       <c r="L14">
-        <v>7.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M14">
         <v>-4.5</v>
@@ -1192,10 +1209,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="O14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1218,7 +1235,7 @@
         <v>12.2</v>
       </c>
       <c r="H15">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I15">
         <v>64.599999999999994</v>
@@ -1230,7 +1247,7 @@
         <v>66.5</v>
       </c>
       <c r="L15">
-        <v>81.599999999999994</v>
+        <v>53.3</v>
       </c>
       <c r="M15">
         <v>17</v>
@@ -1239,10 +1256,10 @@
         <v>53.9</v>
       </c>
       <c r="O15">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1287,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="H17">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="I17">
         <v>168.3</v>
@@ -1282,7 +1299,7 @@
         <v>127.3</v>
       </c>
       <c r="L17">
-        <v>182.7</v>
+        <v>185.8</v>
       </c>
       <c r="M17">
         <v>54.6</v>
@@ -1291,7 +1308,7 @@
         <v>79</v>
       </c>
       <c r="O17">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1329,7 +1346,7 @@
         <v>11.4</v>
       </c>
       <c r="L18">
-        <v>19.8</v>
+        <v>20.5</v>
       </c>
       <c r="M18">
         <v>5.6</v>
@@ -1338,7 +1355,7 @@
         <v>2.9</v>
       </c>
       <c r="O18">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1364,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="I19">
         <v>101.3</v>
@@ -1376,7 +1393,7 @@
         <v>39</v>
       </c>
       <c r="L19">
-        <v>80.2</v>
+        <v>101</v>
       </c>
       <c r="M19">
         <v>32.700000000000003</v>
@@ -1385,7 +1402,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="O19">
-        <v>48.9</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1411,7 +1428,7 @@
         <v>-0.1</v>
       </c>
       <c r="H20">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I20">
         <v>2.5</v>
@@ -1423,7 +1440,7 @@
         <v>10.4</v>
       </c>
       <c r="L20">
-        <v>5.3</v>
+        <v>15.2</v>
       </c>
       <c r="M20">
         <v>-0.8</v>
@@ -1432,7 +1449,7 @@
         <v>4.2</v>
       </c>
       <c r="O20">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1458,7 +1475,7 @@
         <v>12.2</v>
       </c>
       <c r="H21">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I21">
         <v>64.599999999999994</v>
@@ -1470,7 +1487,7 @@
         <v>66.5</v>
       </c>
       <c r="L21">
-        <v>77.3</v>
+        <v>49</v>
       </c>
       <c r="M21">
         <v>17</v>
@@ -1479,7 +1496,7 @@
         <v>53.4</v>
       </c>
       <c r="O21">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1510,7 +1527,7 @@
         <v>36.9</v>
       </c>
       <c r="H23">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="I23">
         <v>138.69999999999999</v>
@@ -1522,7 +1539,7 @@
         <v>119.1</v>
       </c>
       <c r="L23">
-        <v>174.4</v>
+        <v>168.4</v>
       </c>
       <c r="M23">
         <v>54.2</v>
@@ -1531,7 +1548,7 @@
         <v>77</v>
       </c>
       <c r="O23">
-        <v>92</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1569,7 +1586,7 @@
         <v>11.3</v>
       </c>
       <c r="L24">
-        <v>19.8</v>
+        <v>20.5</v>
       </c>
       <c r="M24">
         <v>5.6</v>
@@ -1578,7 +1595,7 @@
         <v>2.9</v>
       </c>
       <c r="O24">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1604,7 +1621,7 @@
         <v>14.9</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I25">
         <v>70.7</v>
@@ -1616,7 +1633,7 @@
         <v>31.4</v>
       </c>
       <c r="L25">
-        <v>70.099999999999994</v>
+        <v>85</v>
       </c>
       <c r="M25">
         <v>32.299999999999997</v>
@@ -1625,7 +1642,7 @@
         <v>16.8</v>
       </c>
       <c r="O25">
-        <v>39.299999999999997</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1651,7 +1668,7 @@
         <v>-0.4</v>
       </c>
       <c r="H26">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I26">
         <v>3.6</v>
@@ -1663,7 +1680,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="L26">
-        <v>7.2</v>
+        <v>13.9</v>
       </c>
       <c r="M26">
         <v>-0.8</v>
@@ -1672,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="O26">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1698,7 +1715,7 @@
         <v>12.2</v>
       </c>
       <c r="H27">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I27">
         <v>64.599999999999994</v>
@@ -1710,7 +1727,7 @@
         <v>66.5</v>
       </c>
       <c r="L27">
-        <v>77.3</v>
+        <v>49</v>
       </c>
       <c r="M27">
         <v>17</v>
@@ -1719,7 +1736,7 @@
         <v>53.3</v>
       </c>
       <c r="O27">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1750,7 +1767,7 @@
         <v>29.2</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="I29">
         <v>123.6</v>
@@ -1762,7 +1779,7 @@
         <v>109.8</v>
       </c>
       <c r="L29">
-        <v>170.2</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="M29">
         <v>37.6</v>
@@ -1771,7 +1788,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="O29">
-        <v>84.1</v>
+        <v>83.4</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1809,7 +1826,7 @@
         <v>8.5</v>
       </c>
       <c r="L30">
-        <v>19.8</v>
+        <v>20.5</v>
       </c>
       <c r="M30">
         <v>5.6</v>
@@ -1818,7 +1835,7 @@
         <v>2.9</v>
       </c>
       <c r="O30">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1844,7 +1861,7 @@
         <v>7.8</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I31">
         <v>53.4</v>
@@ -1856,7 +1873,7 @@
         <v>25</v>
       </c>
       <c r="L31">
-        <v>64.8</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="M31">
         <v>10.4</v>
@@ -1865,7 +1882,7 @@
         <v>15.7</v>
       </c>
       <c r="O31">
-        <v>31</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1891,7 +1908,7 @@
         <v>0.6</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I32">
         <v>5.7</v>
@@ -1903,7 +1920,7 @@
         <v>9.9</v>
       </c>
       <c r="L32">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M32">
         <v>4.5999999999999996</v>
@@ -1912,7 +1929,7 @@
         <v>3.8</v>
       </c>
       <c r="O32">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1938,7 +1955,7 @@
         <v>12.2</v>
       </c>
       <c r="H33">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I33">
         <v>64.599999999999994</v>
@@ -1950,7 +1967,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="L33">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M33">
         <v>17</v>
@@ -1959,7 +1976,7 @@
         <v>53.2</v>
       </c>
       <c r="O33">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1990,7 +2007,7 @@
         <v>26.7</v>
       </c>
       <c r="H35">
-        <v>19.600000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="I35">
         <v>106.5</v>
@@ -2002,7 +2019,7 @@
         <v>107.1</v>
       </c>
       <c r="L35">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M35">
         <v>37.200000000000003</v>
@@ -2011,7 +2028,7 @@
         <v>74.5</v>
       </c>
       <c r="O35">
-        <v>78.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2049,7 +2066,7 @@
         <v>8.4</v>
       </c>
       <c r="L36">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M36">
         <v>5.6</v>
@@ -2058,7 +2075,7 @@
         <v>2.9</v>
       </c>
       <c r="O36">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2084,7 +2101,7 @@
         <v>5.7</v>
       </c>
       <c r="H37">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I37">
         <v>36.4</v>
@@ -2096,7 +2113,7 @@
         <v>22.4</v>
       </c>
       <c r="L37">
-        <v>60</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="M37">
         <v>9.9</v>
@@ -2105,7 +2122,7 @@
         <v>14.8</v>
       </c>
       <c r="O37">
-        <v>25</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2143,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="L38">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M38">
         <v>4.5999999999999996</v>
@@ -2152,7 +2169,7 @@
         <v>3.7</v>
       </c>
       <c r="O38">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2178,7 +2195,7 @@
         <v>12.2</v>
       </c>
       <c r="H39">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I39">
         <v>64.599999999999994</v>
@@ -2190,7 +2207,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="L39">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M39">
         <v>17</v>
@@ -2199,7 +2216,7 @@
         <v>53.1</v>
       </c>
       <c r="O39">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2230,7 +2247,7 @@
         <v>22.4</v>
       </c>
       <c r="H41">
-        <v>18.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I41">
         <v>84.5</v>
@@ -2242,7 +2259,7 @@
         <v>99.7</v>
       </c>
       <c r="L41">
-        <v>165.5</v>
+        <v>156.4</v>
       </c>
       <c r="M41">
         <v>30.6</v>
@@ -2251,7 +2268,7 @@
         <v>74.3</v>
       </c>
       <c r="O41">
-        <v>72.8</v>
+        <v>72.099999999999994</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2289,7 +2306,7 @@
         <v>4.5</v>
       </c>
       <c r="L42">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M42">
         <v>5.6</v>
@@ -2298,7 +2315,7 @@
         <v>2.8</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2324,7 +2341,7 @@
         <v>4.3</v>
       </c>
       <c r="H43">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I43">
         <v>14.4</v>
@@ -2336,7 +2353,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="L43">
-        <v>60</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="M43">
         <v>2.7</v>
@@ -2345,7 +2362,7 @@
         <v>14.5</v>
       </c>
       <c r="O43">
-        <v>19.5</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2371,7 +2388,7 @@
         <v>0.1</v>
       </c>
       <c r="H44">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I44">
         <v>5.6</v>
@@ -2383,7 +2400,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="L44">
-        <v>8.5</v>
+        <v>14.9</v>
       </c>
       <c r="M44">
         <v>5.2</v>
@@ -2392,7 +2409,7 @@
         <v>3.8</v>
       </c>
       <c r="O44">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2418,7 +2435,7 @@
         <v>12.2</v>
       </c>
       <c r="H45">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I45">
         <v>64.599999999999994</v>
@@ -2430,7 +2447,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="L45">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M45">
         <v>17</v>
@@ -2439,7 +2456,7 @@
         <v>53.1</v>
       </c>
       <c r="O45">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2482,7 +2499,7 @@
         <v>98.1</v>
       </c>
       <c r="L47">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M47">
         <v>30.5</v>
@@ -2491,7 +2508,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O47">
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2529,7 +2546,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L48">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M48">
         <v>5.6</v>
@@ -2538,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="O48">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2564,7 +2581,7 @@
         <v>4.3</v>
       </c>
       <c r="H49">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I49">
         <v>4.5</v>
@@ -2576,7 +2593,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="L49">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M49">
         <v>2.7</v>
@@ -2585,7 +2602,7 @@
         <v>14.5</v>
       </c>
       <c r="O49">
-        <v>18.399999999999999</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2623,7 +2640,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="L50">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M50">
         <v>5.0999999999999996</v>
@@ -2632,7 +2649,7 @@
         <v>3.8</v>
       </c>
       <c r="O50">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2658,7 +2675,7 @@
         <v>12.2</v>
       </c>
       <c r="H51">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I51">
         <v>64.599999999999994</v>
@@ -2670,7 +2687,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="L51">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M51">
         <v>17</v>
@@ -2679,7 +2696,7 @@
         <v>53.1</v>
       </c>
       <c r="O51">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
@@ -2716,23 +2733,23 @@
       </c>
       <c r="B56" s="4">
         <f t="shared" ref="B56:B63" ca="1" si="0">OFFSET($O$5,0+$T56,0)</f>
-        <v>131.6</v>
+        <v>132.5</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$6,0+$T56,0)</f>
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$7,0+$T56,0)</f>
-        <v>78.5</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$8,0+$T56,0)</f>
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$9,0+$T56,0)</f>
-        <v>42.8</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -2744,7 +2761,7 @@
       </c>
       <c r="B57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>115.4</v>
+        <v>115.8</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2752,15 +2769,15 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>62.3</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>42.3</v>
+        <v>40.1</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -2772,23 +2789,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>48.9</v>
+        <v>50.5</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -2800,23 +2817,23 @@
       </c>
       <c r="B59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>91.6</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>39.299999999999997</v>
+        <v>40.4</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -2828,23 +2845,23 @@
       </c>
       <c r="B60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>84.1</v>
+        <v>83.4</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -2856,23 +2873,23 @@
       </c>
       <c r="B61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>78.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>25.9</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -2884,23 +2901,23 @@
       </c>
       <c r="B62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>72.8</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>19.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -2912,23 +2929,23 @@
       </c>
       <c r="B63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
       <c r="C63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>18.399999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -3008,7 +3025,7 @@
       </c>
       <c r="H67" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="I67" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -3024,7 +3041,7 @@
       </c>
       <c r="L67" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>205.3</v>
+        <v>216.3</v>
       </c>
       <c r="M67" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -3065,7 +3082,7 @@
       </c>
       <c r="H68" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="I68" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3081,7 +3098,7 @@
       </c>
       <c r="L68" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>197.9</v>
+        <v>203.2</v>
       </c>
       <c r="M68" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3122,7 +3139,7 @@
       </c>
       <c r="H69" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="I69" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3138,7 +3155,7 @@
       </c>
       <c r="L69" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>182.7</v>
+        <v>185.8</v>
       </c>
       <c r="M69" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3179,7 +3196,7 @@
       </c>
       <c r="H70" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="I70" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3195,7 +3212,7 @@
       </c>
       <c r="L70" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>174.4</v>
+        <v>168.4</v>
       </c>
       <c r="M70" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3236,7 +3253,7 @@
       </c>
       <c r="H71" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3252,7 +3269,7 @@
       </c>
       <c r="L71" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>170.2</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="M71" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3293,7 +3310,7 @@
       </c>
       <c r="H72" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>19.600000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="I72" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3309,7 +3326,7 @@
       </c>
       <c r="L72" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M72" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3350,7 +3367,7 @@
       </c>
       <c r="H73" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>18.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I73" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3366,7 +3383,7 @@
       </c>
       <c r="L73" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>165.5</v>
+        <v>156.4</v>
       </c>
       <c r="M73" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3423,7 +3440,7 @@
       </c>
       <c r="L74" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M74" s="4">
         <f t="shared" ca="1" si="6"/>

--- a/data/stackcachesize.xlsx
+++ b/data/stackcachesize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="2" r:id="rId1"/>
@@ -206,8 +206,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -279,7 +283,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -311,6 +315,8 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -342,6 +348,8 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/stackcachesize.xlsx
+++ b/data/stackcachesize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="2" r:id="rId1"/>
@@ -206,8 +206,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -283,7 +285,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -317,6 +319,7 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -350,6 +353,7 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2717,19 +2721,19 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
         <v>15</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s">
-        <v>21</v>
       </c>
       <c r="T55" t="s">
         <v>23</v>
@@ -2740,24 +2744,24 @@
         <v>4</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" ref="B56:B63" ca="1" si="0">OFFSET($O$5,0+$T56,0)</f>
+        <f ca="1">OFFSET($O$6,0+$T56,0)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C56" s="4">
+        <f ca="1">OFFSET($O$7,0+$T56,0)</f>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D56" s="4">
+        <f ca="1">OFFSET($O$8,0+$T56,0)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E56" s="4">
+        <f ca="1">OFFSET($O$9,0+$T56,0)</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F56" s="4">
+        <f ca="1">OFFSET($O$5,0+$T56,0)</f>
         <v>132.5</v>
-      </c>
-      <c r="C56" s="4">
-        <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$6,0+$T56,0)</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D56" s="4">
-        <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$7,0+$T56,0)</f>
-        <v>80.599999999999994</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$8,0+$T56,0)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F56" s="4">
-        <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$9,0+$T56,0)</f>
-        <v>40.700000000000003</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -2768,24 +2772,24 @@
         <v>5</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($O$6,0+$T57,0)</f>
+        <v>7.9</v>
+      </c>
+      <c r="C57" s="4">
+        <f ca="1">OFFSET($O$7,0+$T57,0)</f>
+        <v>64.099999999999994</v>
+      </c>
+      <c r="D57" s="4">
+        <f ca="1">OFFSET($O$8,0+$T57,0)</f>
+        <v>3.7</v>
+      </c>
+      <c r="E57" s="4">
+        <f ca="1">OFFSET($O$9,0+$T57,0)</f>
+        <v>40.1</v>
+      </c>
+      <c r="F57" s="4">
+        <f ca="1">OFFSET($O$5,0+$T57,0)</f>
         <v>115.8</v>
-      </c>
-      <c r="C57" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9</v>
-      </c>
-      <c r="D57" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>64.099999999999994</v>
-      </c>
-      <c r="E57" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.7</v>
-      </c>
-      <c r="F57" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.1</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -2796,24 +2800,24 @@
         <v>6</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($O$6,0+$T58,0)</f>
+        <v>6.8</v>
+      </c>
+      <c r="C58" s="4">
+        <f ca="1">OFFSET($O$7,0+$T58,0)</f>
+        <v>50.5</v>
+      </c>
+      <c r="D58" s="4">
+        <f ca="1">OFFSET($O$8,0+$T58,0)</f>
+        <v>4.7</v>
+      </c>
+      <c r="E58" s="4">
+        <f ca="1">OFFSET($O$9,0+$T58,0)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F58" s="4">
+        <f ca="1">OFFSET($O$5,0+$T58,0)</f>
         <v>101.8</v>
-      </c>
-      <c r="C58" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="D58" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>50.5</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.7</v>
-      </c>
-      <c r="F58" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>39.799999999999997</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -2824,24 +2828,24 @@
         <v>7</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($O$6,0+$T59,0)</f>
+        <v>6.5</v>
+      </c>
+      <c r="C59" s="4">
+        <f ca="1">OFFSET($O$7,0+$T59,0)</f>
+        <v>40.4</v>
+      </c>
+      <c r="D59" s="4">
+        <f ca="1">OFFSET($O$8,0+$T59,0)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E59" s="4">
+        <f ca="1">OFFSET($O$9,0+$T59,0)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F59" s="4">
+        <f ca="1">OFFSET($O$5,0+$T59,0)</f>
         <v>91.6</v>
-      </c>
-      <c r="C59" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="D59" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.4</v>
-      </c>
-      <c r="E59" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F59" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>39.799999999999997</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -2852,24 +2856,24 @@
         <v>8</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($O$6,0+$T60,0)</f>
+        <v>5.9</v>
+      </c>
+      <c r="C60" s="4">
+        <f ca="1">OFFSET($O$7,0+$T60,0)</f>
+        <v>31.8</v>
+      </c>
+      <c r="D60" s="4">
+        <f ca="1">OFFSET($O$8,0+$T60,0)</f>
+        <v>5.9</v>
+      </c>
+      <c r="E60" s="4">
+        <f ca="1">OFFSET($O$9,0+$T60,0)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F60" s="4">
+        <f ca="1">OFFSET($O$5,0+$T60,0)</f>
         <v>83.4</v>
-      </c>
-      <c r="C60" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.9</v>
-      </c>
-      <c r="D60" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>31.8</v>
-      </c>
-      <c r="E60" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.9</v>
-      </c>
-      <c r="F60" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>39.799999999999997</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -2880,24 +2884,24 @@
         <v>9</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($O$6,0+$T61,0)</f>
+        <v>5.6</v>
+      </c>
+      <c r="C61" s="4">
+        <f ca="1">OFFSET($O$7,0+$T61,0)</f>
+        <v>25.9</v>
+      </c>
+      <c r="D61" s="4">
+        <f ca="1">OFFSET($O$8,0+$T61,0)</f>
+        <v>6.7</v>
+      </c>
+      <c r="E61" s="4">
+        <f ca="1">OFFSET($O$9,0+$T61,0)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F61" s="4">
+        <f ca="1">OFFSET($O$5,0+$T61,0)</f>
         <v>77.900000000000006</v>
-      </c>
-      <c r="C61" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
-      </c>
-      <c r="D61" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>25.9</v>
-      </c>
-      <c r="E61" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7</v>
-      </c>
-      <c r="F61" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>39.799999999999997</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -2908,24 +2912,24 @@
         <v>10</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($O$6,0+$T62,0)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C62" s="4">
+        <f ca="1">OFFSET($O$7,0+$T62,0)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D62" s="4">
+        <f ca="1">OFFSET($O$8,0+$T62,0)</f>
+        <v>6.8</v>
+      </c>
+      <c r="E62" s="4">
+        <f ca="1">OFFSET($O$9,0+$T62,0)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F62" s="4">
+        <f ca="1">OFFSET($O$5,0+$T62,0)</f>
         <v>72.099999999999994</v>
-      </c>
-      <c r="C62" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D62" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E62" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.8</v>
-      </c>
-      <c r="F62" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>39.799999999999997</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -2936,24 +2940,24 @@
         <v>11</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($O$6,0+$T63,0)</f>
+        <v>4.5</v>
+      </c>
+      <c r="C63" s="4">
+        <f ca="1">OFFSET($O$7,0+$T63,0)</f>
+        <v>19.3</v>
+      </c>
+      <c r="D63" s="4">
+        <f ca="1">OFFSET($O$8,0+$T63,0)</f>
+        <v>6.9</v>
+      </c>
+      <c r="E63" s="4">
+        <f ca="1">OFFSET($O$9,0+$T63,0)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F63" s="4">
+        <f ca="1">OFFSET($O$5,0+$T63,0)</f>
         <v>70.5</v>
-      </c>
-      <c r="C63" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="D63" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.3</v>
-      </c>
-      <c r="E63" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
-      </c>
-      <c r="F63" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>39.799999999999997</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -3012,51 +3016,51 @@
         <v>244</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" ref="C67:N67" ca="1" si="5">OFFSET(C$5,0+$T56,0)</f>
+        <f t="shared" ref="C67:N67" ca="1" si="0">OFFSET(C$5,0+$T56,0)</f>
         <v>166.1</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>171.3</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>99.7</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>67.400000000000006</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>49.3</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>31.5</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>204</v>
       </c>
       <c r="J67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>120.6</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>158.19999999999999</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>216.3</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>92.4</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>101.1</v>
       </c>
     </row>
@@ -3065,55 +3069,55 @@
         <v>5</v>
       </c>
       <c r="B68" s="4">
-        <f t="shared" ref="B68:N74" ca="1" si="6">OFFSET(B$5,0+$T57,0)</f>
+        <f t="shared" ref="B68:N74" ca="1" si="1">OFFSET(B$5,0+$T57,0)</f>
         <v>187.6</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>130.30000000000001</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>148.30000000000001</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>94.8</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>59.4</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>46.9</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>29.2</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>186.8</v>
       </c>
       <c r="J68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>107.2</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>139</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>203.2</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>84.5</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>88.8</v>
       </c>
     </row>
@@ -3122,55 +3126,55 @@
         <v>6</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>160.9</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>120.2</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>120.8</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>92.1</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>53.9</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>39.200000000000003</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>168.3</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>96.7</v>
       </c>
       <c r="K69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>127.3</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>185.8</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>54.6</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>79</v>
       </c>
     </row>
@@ -3179,55 +3183,55 @@
         <v>7</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>134.5</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>112.2</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>104.5</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>81.599999999999994</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>49.8</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>36.9</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>21.8</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>138.69999999999999</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>91.6</v>
       </c>
       <c r="K70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>119.1</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>168.4</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>54.2</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>77</v>
       </c>
     </row>
@@ -3236,55 +3240,55 @@
         <v>8</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>124.5</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>97.7</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>90.5</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>79.3</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>46.9</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>29.2</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>20.9</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>123.6</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>87.3</v>
       </c>
       <c r="K71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>109.8</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>161.19999999999999</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>37.6</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>75.599999999999994</v>
       </c>
     </row>
@@ -3293,55 +3297,55 @@
         <v>9</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>114.5</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>93.5</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>78.7</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>65.3</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>45.7</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>26.7</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19.5</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>106.5</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>87.3</v>
       </c>
       <c r="K72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>107.1</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>156.30000000000001</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>37.200000000000003</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>74.5</v>
       </c>
     </row>
@@ -3350,55 +3354,55 @@
         <v>10</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>101.2</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>88.5</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>65.2</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>63.4</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>45.7</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>22.4</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>18.399999999999999</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>84.5</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>86.5</v>
       </c>
       <c r="K73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>99.7</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>156.4</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>30.6</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>74.3</v>
       </c>
     </row>
@@ -3407,55 +3411,55 @@
         <v>11</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>101.2</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>88.5</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>65.2</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>57.6</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>45.7</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19.5</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>17.7</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>75.7</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>86.5</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>98.1</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>156.30000000000001</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>30.5</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>73.400000000000006</v>
       </c>
     </row>

--- a/data/stackcachesize.xlsx
+++ b/data/stackcachesize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33420" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="2" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>number of register pairs</t>
   </si>
   <si>
-    <t>UPDATED 20180301</t>
+    <t>UPDATED 20180305</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,8 +206,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -285,7 +287,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -320,6 +322,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -354,6 +357,7 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F63" sqref="A55:F63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -821,10 +825,10 @@
         <v>204</v>
       </c>
       <c r="J5">
-        <v>120.6</v>
+        <v>119.3</v>
       </c>
       <c r="K5">
-        <v>158.19999999999999</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="L5">
         <v>216.3</v>
@@ -836,7 +840,7 @@
         <v>101.1</v>
       </c>
       <c r="O5">
-        <v>132.5</v>
+        <v>132.30000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -871,7 +875,7 @@
         <v>-5.6</v>
       </c>
       <c r="K6">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="L6">
         <v>20.5</v>
@@ -883,7 +887,7 @@
         <v>3.5</v>
       </c>
       <c r="O6">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -915,10 +919,10 @@
         <v>143.9</v>
       </c>
       <c r="J7">
-        <v>90.6</v>
+        <v>86.9</v>
       </c>
       <c r="K7">
-        <v>76.099999999999994</v>
+        <v>75.5</v>
       </c>
       <c r="L7">
         <v>125.1</v>
@@ -930,7 +934,7 @@
         <v>35.9</v>
       </c>
       <c r="O7">
-        <v>80.599999999999994</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -965,7 +969,7 @@
         <v>1.3</v>
       </c>
       <c r="K8">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L8">
         <v>16.600000000000001</v>
@@ -1009,10 +1013,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J9">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K9">
-        <v>66.5</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="L9">
         <v>54.2</v>
@@ -1024,7 +1028,7 @@
         <v>56.3</v>
       </c>
       <c r="O9">
-        <v>40.700000000000003</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1061,10 +1065,10 @@
         <v>186.8</v>
       </c>
       <c r="J11">
-        <v>107.2</v>
+        <v>105.9</v>
       </c>
       <c r="K11">
-        <v>139</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="L11">
         <v>203.2</v>
@@ -1076,7 +1080,7 @@
         <v>88.8</v>
       </c>
       <c r="O11">
-        <v>115.8</v>
+        <v>115.7</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>33</v>
@@ -1115,7 +1119,7 @@
         <v>-7.6</v>
       </c>
       <c r="K12">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="L12">
         <v>20.5</v>
@@ -1127,7 +1131,7 @@
         <v>3.5</v>
       </c>
       <c r="O12">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1163,10 @@
         <v>122.1</v>
       </c>
       <c r="J13">
-        <v>76.099999999999994</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="K13">
-        <v>52.6</v>
+        <v>52</v>
       </c>
       <c r="L13">
         <v>112.8</v>
@@ -1174,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="O13">
-        <v>64.099999999999994</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1209,7 +1213,7 @@
         <v>4.5</v>
       </c>
       <c r="K14">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="L14">
         <v>16.600000000000001</v>
@@ -1253,10 +1257,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J15">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K15">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="L15">
         <v>53.3</v>
@@ -1268,7 +1272,7 @@
         <v>53.9</v>
       </c>
       <c r="O15">
-        <v>40.1</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1305,10 +1309,10 @@
         <v>168.3</v>
       </c>
       <c r="J17">
-        <v>96.7</v>
+        <v>95.4</v>
       </c>
       <c r="K17">
-        <v>127.3</v>
+        <v>126.1</v>
       </c>
       <c r="L17">
         <v>185.8</v>
@@ -1320,7 +1324,7 @@
         <v>79</v>
       </c>
       <c r="O17">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1355,7 +1359,7 @@
         <v>-9.6</v>
       </c>
       <c r="K18">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="L18">
         <v>20.5</v>
@@ -1367,7 +1371,7 @@
         <v>2.9</v>
       </c>
       <c r="O18">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1399,10 +1403,10 @@
         <v>101.3</v>
       </c>
       <c r="J19">
-        <v>65.8</v>
+        <v>62.1</v>
       </c>
       <c r="K19">
-        <v>39</v>
+        <v>38.4</v>
       </c>
       <c r="L19">
         <v>101</v>
@@ -1414,7 +1418,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="O19">
-        <v>50.5</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1449,7 +1453,7 @@
         <v>6.3</v>
       </c>
       <c r="K20">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="L20">
         <v>15.2</v>
@@ -1493,10 +1497,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J21">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K21">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="L21">
         <v>49</v>
@@ -1508,7 +1512,7 @@
         <v>53.4</v>
       </c>
       <c r="O21">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1545,10 +1549,10 @@
         <v>138.69999999999999</v>
       </c>
       <c r="J23">
-        <v>91.6</v>
+        <v>89.8</v>
       </c>
       <c r="K23">
-        <v>119.1</v>
+        <v>117.9</v>
       </c>
       <c r="L23">
         <v>168.4</v>
@@ -1560,7 +1564,7 @@
         <v>77</v>
       </c>
       <c r="O23">
-        <v>91.6</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1595,7 +1599,7 @@
         <v>-11.7</v>
       </c>
       <c r="K24">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="L24">
         <v>20.5</v>
@@ -1607,7 +1611,7 @@
         <v>2.9</v>
       </c>
       <c r="O24">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1639,10 +1643,10 @@
         <v>70.7</v>
       </c>
       <c r="J25">
-        <v>62.8</v>
+        <v>59.2</v>
       </c>
       <c r="K25">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
       <c r="L25">
         <v>85</v>
@@ -1654,7 +1658,7 @@
         <v>16.8</v>
       </c>
       <c r="O25">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1686,10 +1690,10 @@
         <v>3.6</v>
       </c>
       <c r="J26">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="K26">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L26">
         <v>13.9</v>
@@ -1701,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="O26">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1733,10 +1737,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J27">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K27">
-        <v>66.5</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="L27">
         <v>49</v>
@@ -1748,7 +1752,7 @@
         <v>53.3</v>
       </c>
       <c r="O27">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1785,10 +1789,10 @@
         <v>123.6</v>
       </c>
       <c r="J29">
-        <v>87.3</v>
+        <v>85.5</v>
       </c>
       <c r="K29">
-        <v>109.8</v>
+        <v>108.6</v>
       </c>
       <c r="L29">
         <v>161.19999999999999</v>
@@ -1800,7 +1804,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="O29">
-        <v>83.4</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1835,7 +1839,7 @@
         <v>-13.7</v>
       </c>
       <c r="K30">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="L30">
         <v>20.5</v>
@@ -1847,7 +1851,7 @@
         <v>2.9</v>
       </c>
       <c r="O30">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1879,10 +1883,10 @@
         <v>53.4</v>
       </c>
       <c r="J31">
-        <v>59.8</v>
+        <v>56.2</v>
       </c>
       <c r="K31">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="L31">
         <v>76.900000000000006</v>
@@ -1894,7 +1898,7 @@
         <v>15.7</v>
       </c>
       <c r="O31">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1926,10 +1930,10 @@
         <v>5.7</v>
       </c>
       <c r="J32">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="K32">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L32">
         <v>14.9</v>
@@ -1941,7 +1945,7 @@
         <v>3.8</v>
       </c>
       <c r="O32">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1973,10 +1977,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J33">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K33">
-        <v>66.400000000000006</v>
+        <v>66.7</v>
       </c>
       <c r="L33">
         <v>49</v>
@@ -1988,7 +1992,7 @@
         <v>53.2</v>
       </c>
       <c r="O33">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2025,10 +2029,10 @@
         <v>106.5</v>
       </c>
       <c r="J35">
-        <v>87.3</v>
+        <v>85.5</v>
       </c>
       <c r="K35">
-        <v>107.1</v>
+        <v>106</v>
       </c>
       <c r="L35">
         <v>156.30000000000001</v>
@@ -2040,7 +2044,7 @@
         <v>74.5</v>
       </c>
       <c r="O35">
-        <v>77.900000000000006</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2075,7 +2079,7 @@
         <v>-13.7</v>
       </c>
       <c r="K36">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="L36">
         <v>20.399999999999999</v>
@@ -2087,7 +2091,7 @@
         <v>2.9</v>
       </c>
       <c r="O36">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2119,10 +2123,10 @@
         <v>36.4</v>
       </c>
       <c r="J37">
-        <v>59.8</v>
+        <v>56.2</v>
       </c>
       <c r="K37">
-        <v>22.4</v>
+        <v>21.7</v>
       </c>
       <c r="L37">
         <v>72.099999999999994</v>
@@ -2134,7 +2138,7 @@
         <v>14.8</v>
       </c>
       <c r="O37">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2166,7 +2170,7 @@
         <v>5.6</v>
       </c>
       <c r="J38">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="K38">
         <v>10</v>
@@ -2213,10 +2217,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J39">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K39">
-        <v>66.400000000000006</v>
+        <v>66.7</v>
       </c>
       <c r="L39">
         <v>49</v>
@@ -2228,7 +2232,7 @@
         <v>53.1</v>
       </c>
       <c r="O39">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2265,10 +2269,10 @@
         <v>84.5</v>
       </c>
       <c r="J41">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K41">
-        <v>99.7</v>
+        <v>98.6</v>
       </c>
       <c r="L41">
         <v>156.4</v>
@@ -2280,7 +2284,7 @@
         <v>74.3</v>
       </c>
       <c r="O41">
-        <v>72.099999999999994</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2315,7 +2319,7 @@
         <v>-13.7</v>
       </c>
       <c r="K42">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L42">
         <v>20.399999999999999</v>
@@ -2327,7 +2331,7 @@
         <v>2.8</v>
       </c>
       <c r="O42">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2359,10 +2363,10 @@
         <v>14.4</v>
       </c>
       <c r="J43">
-        <v>57.9</v>
+        <v>54.3</v>
       </c>
       <c r="K43">
-        <v>19.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="L43">
         <v>72.099999999999994</v>
@@ -2374,7 +2378,7 @@
         <v>14.5</v>
       </c>
       <c r="O43">
-        <v>20.399999999999999</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2406,7 +2410,7 @@
         <v>5.6</v>
       </c>
       <c r="J44">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="K44">
         <v>9.6999999999999993</v>
@@ -2421,7 +2425,7 @@
         <v>3.8</v>
       </c>
       <c r="O44">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2453,10 +2457,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J45">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K45">
-        <v>66.400000000000006</v>
+        <v>66.7</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -2468,7 +2472,7 @@
         <v>53.1</v>
       </c>
       <c r="O45">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2505,10 +2509,10 @@
         <v>75.7</v>
       </c>
       <c r="J47">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K47">
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L47">
         <v>156.30000000000001</v>
@@ -2520,7 +2524,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O47">
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2555,7 +2559,7 @@
         <v>-13.7</v>
       </c>
       <c r="K48">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="L48">
         <v>20.399999999999999</v>
@@ -2567,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2599,10 +2603,10 @@
         <v>4.5</v>
       </c>
       <c r="J49">
-        <v>57.9</v>
+        <v>54.3</v>
       </c>
       <c r="K49">
-        <v>17.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="L49">
         <v>72</v>
@@ -2614,7 +2618,7 @@
         <v>14.5</v>
       </c>
       <c r="O49">
-        <v>19.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2646,10 +2650,10 @@
         <v>6.8</v>
       </c>
       <c r="J50">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="K50">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="L50">
         <v>14.9</v>
@@ -2661,7 +2665,7 @@
         <v>3.8</v>
       </c>
       <c r="O50">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2693,10 +2697,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J51">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K51">
-        <v>66.400000000000006</v>
+        <v>66.8</v>
       </c>
       <c r="L51">
         <v>49</v>
@@ -2708,7 +2712,7 @@
         <v>53.1</v>
       </c>
       <c r="O51">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
@@ -2744,24 +2748,24 @@
         <v>4</v>
       </c>
       <c r="B56" s="4">
-        <f ca="1">OFFSET($O$6,0+$T56,0)</f>
-        <v>8.8000000000000007</v>
+        <f t="shared" ref="B56:B63" ca="1" si="0">OFFSET($O$6,0+$T56,0)</f>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C56" s="4">
-        <f ca="1">OFFSET($O$7,0+$T56,0)</f>
-        <v>80.599999999999994</v>
+        <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$7,0+$T56,0)</f>
+        <v>80.3</v>
       </c>
       <c r="D56" s="4">
-        <f ca="1">OFFSET($O$8,0+$T56,0)</f>
+        <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$8,0+$T56,0)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="E56" s="4">
-        <f ca="1">OFFSET($O$9,0+$T56,0)</f>
-        <v>40.700000000000003</v>
+        <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$9,0+$T56,0)</f>
+        <v>40.9</v>
       </c>
       <c r="F56" s="4">
-        <f ca="1">OFFSET($O$5,0+$T56,0)</f>
-        <v>132.5</v>
+        <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$5,0+$T56,0)</f>
+        <v>132.30000000000001</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -2772,24 +2776,24 @@
         <v>5</v>
       </c>
       <c r="B57" s="4">
-        <f ca="1">OFFSET($O$6,0+$T57,0)</f>
-        <v>7.9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8</v>
       </c>
       <c r="C57" s="4">
-        <f ca="1">OFFSET($O$7,0+$T57,0)</f>
-        <v>64.099999999999994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63.8</v>
       </c>
       <c r="D57" s="4">
-        <f ca="1">OFFSET($O$8,0+$T57,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.7</v>
       </c>
       <c r="E57" s="4">
-        <f ca="1">OFFSET($O$9,0+$T57,0)</f>
-        <v>40.1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>40.299999999999997</v>
       </c>
       <c r="F57" s="4">
-        <f ca="1">OFFSET($O$5,0+$T57,0)</f>
-        <v>115.8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>115.7</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -2800,24 +2804,24 @@
         <v>6</v>
       </c>
       <c r="B58" s="4">
-        <f ca="1">OFFSET($O$6,0+$T58,0)</f>
-        <v>6.8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7</v>
       </c>
       <c r="C58" s="4">
-        <f ca="1">OFFSET($O$7,0+$T58,0)</f>
-        <v>50.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>50.2</v>
       </c>
       <c r="D58" s="4">
-        <f ca="1">OFFSET($O$8,0+$T58,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.7</v>
       </c>
       <c r="E58" s="4">
-        <f ca="1">OFFSET($O$9,0+$T58,0)</f>
-        <v>39.799999999999997</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
       </c>
       <c r="F58" s="4">
-        <f ca="1">OFFSET($O$5,0+$T58,0)</f>
-        <v>101.8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>101.6</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -2828,24 +2832,24 @@
         <v>7</v>
       </c>
       <c r="B59" s="4">
-        <f ca="1">OFFSET($O$6,0+$T59,0)</f>
-        <v>6.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
       </c>
       <c r="C59" s="4">
-        <f ca="1">OFFSET($O$7,0+$T59,0)</f>
-        <v>40.4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>40.1</v>
       </c>
       <c r="D59" s="4">
-        <f ca="1">OFFSET($O$8,0+$T59,0)</f>
-        <v>4.9000000000000004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8</v>
       </c>
       <c r="E59" s="4">
-        <f ca="1">OFFSET($O$9,0+$T59,0)</f>
-        <v>39.799999999999997</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
       </c>
       <c r="F59" s="4">
-        <f ca="1">OFFSET($O$5,0+$T59,0)</f>
-        <v>91.6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>91.3</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -2856,24 +2860,24 @@
         <v>8</v>
       </c>
       <c r="B60" s="4">
-        <f ca="1">OFFSET($O$6,0+$T60,0)</f>
-        <v>5.9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8</v>
       </c>
       <c r="C60" s="4">
-        <f ca="1">OFFSET($O$7,0+$T60,0)</f>
-        <v>31.8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>31.5</v>
       </c>
       <c r="D60" s="4">
-        <f ca="1">OFFSET($O$8,0+$T60,0)</f>
-        <v>5.9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.8</v>
       </c>
       <c r="E60" s="4">
-        <f ca="1">OFFSET($O$9,0+$T60,0)</f>
-        <v>39.799999999999997</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
       </c>
       <c r="F60" s="4">
-        <f ca="1">OFFSET($O$5,0+$T60,0)</f>
-        <v>83.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>83.2</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -2884,24 +2888,24 @@
         <v>9</v>
       </c>
       <c r="B61" s="4">
-        <f ca="1">OFFSET($O$6,0+$T61,0)</f>
-        <v>5.6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5</v>
       </c>
       <c r="C61" s="4">
-        <f ca="1">OFFSET($O$7,0+$T61,0)</f>
-        <v>25.9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25.5</v>
       </c>
       <c r="D61" s="4">
-        <f ca="1">OFFSET($O$8,0+$T61,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>6.7</v>
       </c>
       <c r="E61" s="4">
-        <f ca="1">OFFSET($O$9,0+$T61,0)</f>
-        <v>39.799999999999997</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
       </c>
       <c r="F61" s="4">
-        <f ca="1">OFFSET($O$5,0+$T61,0)</f>
-        <v>77.900000000000006</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>77.7</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -2912,24 +2916,24 @@
         <v>10</v>
       </c>
       <c r="B62" s="4">
-        <f ca="1">OFFSET($O$6,0+$T62,0)</f>
-        <v>5.0999999999999996</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="C62" s="4">
-        <f ca="1">OFFSET($O$7,0+$T62,0)</f>
-        <v>20.399999999999999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20.100000000000001</v>
       </c>
       <c r="D62" s="4">
-        <f ca="1">OFFSET($O$8,0+$T62,0)</f>
-        <v>6.8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7</v>
       </c>
       <c r="E62" s="4">
-        <f ca="1">OFFSET($O$9,0+$T62,0)</f>
-        <v>39.799999999999997</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
       </c>
       <c r="F62" s="4">
-        <f ca="1">OFFSET($O$5,0+$T62,0)</f>
-        <v>72.099999999999994</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>71.8</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -2940,24 +2944,24 @@
         <v>11</v>
       </c>
       <c r="B63" s="4">
-        <f ca="1">OFFSET($O$6,0+$T63,0)</f>
-        <v>4.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C63" s="4">
-        <f ca="1">OFFSET($O$7,0+$T63,0)</f>
-        <v>19.3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="D63" s="4">
-        <f ca="1">OFFSET($O$8,0+$T63,0)</f>
-        <v>6.9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8</v>
       </c>
       <c r="E63" s="4">
-        <f ca="1">OFFSET($O$9,0+$T63,0)</f>
-        <v>39.799999999999997</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
       </c>
       <c r="F63" s="4">
-        <f ca="1">OFFSET($O$5,0+$T63,0)</f>
-        <v>70.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>70.2</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -3016,51 +3020,51 @@
         <v>244</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" ref="C67:N67" ca="1" si="0">OFFSET(C$5,0+$T56,0)</f>
+        <f t="shared" ref="C67:N67" ca="1" si="5">OFFSET(C$5,0+$T56,0)</f>
         <v>166.1</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>171.3</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>99.7</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>67.400000000000006</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>49.3</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>31.5</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>204</v>
       </c>
       <c r="J67" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>120.6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>119.3</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>158.19999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>157.30000000000001</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>216.3</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>92.4</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>101.1</v>
       </c>
     </row>
@@ -3069,55 +3073,55 @@
         <v>5</v>
       </c>
       <c r="B68" s="4">
-        <f t="shared" ref="B68:N74" ca="1" si="1">OFFSET(B$5,0+$T57,0)</f>
+        <f t="shared" ref="B68:N74" ca="1" si="6">OFFSET(B$5,0+$T57,0)</f>
         <v>187.6</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>130.30000000000001</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>148.30000000000001</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>94.8</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>59.4</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>46.9</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>29.2</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>186.8</v>
       </c>
       <c r="J68" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>107.2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>105.9</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>137.80000000000001</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>203.2</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>84.5</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>88.8</v>
       </c>
     </row>
@@ -3126,55 +3130,55 @@
         <v>6</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>160.9</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>120.2</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>120.8</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>92.1</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>53.9</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>39.200000000000003</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>24</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>168.3</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>96.7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>95.4</v>
       </c>
       <c r="K69" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>127.3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>126.1</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>185.8</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>54.6</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>79</v>
       </c>
     </row>
@@ -3183,55 +3187,55 @@
         <v>7</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>134.5</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>112.2</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>104.5</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>81.599999999999994</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>49.8</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>36.9</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>21.8</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>138.69999999999999</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>91.6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>89.8</v>
       </c>
       <c r="K70" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>119.1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>117.9</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>168.4</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>54.2</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>77</v>
       </c>
     </row>
@@ -3240,55 +3244,55 @@
         <v>8</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>124.5</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>97.7</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>90.5</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>79.3</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>46.9</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>29.2</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>20.9</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>123.6</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>87.3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>85.5</v>
       </c>
       <c r="K71" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>109.8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>108.6</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>161.19999999999999</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>37.6</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75.599999999999994</v>
       </c>
     </row>
@@ -3297,55 +3301,55 @@
         <v>9</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>114.5</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>93.5</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>78.7</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>65.3</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>45.7</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>26.7</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>19.5</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>106.5</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>87.3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>85.5</v>
       </c>
       <c r="K72" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>107.1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>106</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>156.30000000000001</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>37.200000000000003</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>74.5</v>
       </c>
     </row>
@@ -3354,55 +3358,55 @@
         <v>10</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>101.2</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>88.5</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>65.2</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>63.4</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>45.7</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>22.4</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>18.399999999999999</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>84.5</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>86.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>84.6</v>
       </c>
       <c r="K73" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>99.7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>98.6</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>156.4</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>30.6</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>74.3</v>
       </c>
     </row>
@@ -3411,55 +3415,55 @@
         <v>11</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>101.2</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>88.5</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>65.2</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>57.6</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>45.7</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>19.5</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>17.7</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75.7</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>86.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>84.6</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>98.1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>156.30000000000001</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>30.5</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>73.400000000000006</v>
       </c>
     </row>

--- a/data/stackcachesize.xlsx
+++ b/data/stackcachesize.xlsx
@@ -206,8 +206,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -287,7 +293,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -323,6 +329,9 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -358,6 +367,9 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/stackcachesize.xlsx
+++ b/data/stackcachesize.xlsx
@@ -206,8 +206,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -293,7 +295,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -332,6 +334,7 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -370,6 +373,7 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>

--- a/data/stackcachesize.xlsx
+++ b/data/stackcachesize.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -120,7 +120,10 @@
     <t>number of register pairs</t>
   </si>
   <si>
-    <t>UPDATED 20180305</t>
+    <t>coremk_ch2</t>
+  </si>
+  <si>
+    <t>UPDATED 20180327</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,8 +209,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,7 +300,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -335,6 +340,7 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -374,6 +380,7 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F63" sqref="A55:F63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -795,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -844,7 +851,7 @@
         <v>119.3</v>
       </c>
       <c r="K5">
-        <v>157.30000000000001</v>
+        <v>119.9</v>
       </c>
       <c r="L5">
         <v>216.3</v>
@@ -853,10 +860,10 @@
         <v>92.4</v>
       </c>
       <c r="N5">
-        <v>101.1</v>
+        <v>105.1</v>
       </c>
       <c r="O5">
-        <v>132.30000000000001</v>
+        <v>129.69999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -891,7 +898,7 @@
         <v>-5.6</v>
       </c>
       <c r="K6">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="L6">
         <v>20.5</v>
@@ -900,7 +907,7 @@
         <v>21.2</v>
       </c>
       <c r="N6">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O6">
         <v>8.6999999999999993</v>
@@ -938,7 +945,7 @@
         <v>86.9</v>
       </c>
       <c r="K7">
-        <v>75.5</v>
+        <v>76</v>
       </c>
       <c r="L7">
         <v>125.1</v>
@@ -947,10 +954,10 @@
         <v>58.8</v>
       </c>
       <c r="N7">
-        <v>35.9</v>
+        <v>37.9</v>
       </c>
       <c r="O7">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -985,7 +992,7 @@
         <v>1.3</v>
       </c>
       <c r="K8">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L8">
         <v>16.600000000000001</v>
@@ -994,10 +1001,10 @@
         <v>-4.7</v>
       </c>
       <c r="N8">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="O8">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1032,7 +1039,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K9">
-        <v>67.099999999999994</v>
+        <v>30</v>
       </c>
       <c r="L9">
         <v>54.2</v>
@@ -1041,10 +1048,10 @@
         <v>17</v>
       </c>
       <c r="N9">
-        <v>56.3</v>
+        <v>56.6</v>
       </c>
       <c r="O9">
-        <v>40.9</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1084,7 +1091,7 @@
         <v>105.9</v>
       </c>
       <c r="K11">
-        <v>137.80000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="L11">
         <v>203.2</v>
@@ -1093,13 +1100,13 @@
         <v>84.5</v>
       </c>
       <c r="N11">
-        <v>88.8</v>
+        <v>92.7</v>
       </c>
       <c r="O11">
-        <v>115.7</v>
+        <v>113</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S11" s="5"/>
     </row>
@@ -1135,7 +1142,7 @@
         <v>-7.6</v>
       </c>
       <c r="K12">
-        <v>10.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L12">
         <v>20.5</v>
@@ -1144,7 +1151,7 @@
         <v>13.6</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O12">
         <v>7.8</v>
@@ -1182,7 +1189,7 @@
         <v>72.400000000000006</v>
       </c>
       <c r="K13">
-        <v>52</v>
+        <v>52.2</v>
       </c>
       <c r="L13">
         <v>112.8</v>
@@ -1191,10 +1198,10 @@
         <v>58.4</v>
       </c>
       <c r="N13">
-        <v>27</v>
+        <v>29.9</v>
       </c>
       <c r="O13">
-        <v>63.8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1229,7 +1236,7 @@
         <v>4.5</v>
       </c>
       <c r="K14">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L14">
         <v>16.600000000000001</v>
@@ -1238,10 +1245,10 @@
         <v>-4.5</v>
       </c>
       <c r="N14">
-        <v>4.4000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="O14">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1276,7 +1283,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K15">
-        <v>66.8</v>
+        <v>29.6</v>
       </c>
       <c r="L15">
         <v>53.3</v>
@@ -1285,10 +1292,10 @@
         <v>17</v>
       </c>
       <c r="N15">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="O15">
-        <v>40.299999999999997</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1328,7 +1335,7 @@
         <v>95.4</v>
       </c>
       <c r="K17">
-        <v>126.1</v>
+        <v>88.4</v>
       </c>
       <c r="L17">
         <v>185.8</v>
@@ -1337,10 +1344,10 @@
         <v>54.6</v>
       </c>
       <c r="N17">
-        <v>79</v>
+        <v>79.8</v>
       </c>
       <c r="O17">
-        <v>101.6</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1375,7 +1382,7 @@
         <v>-9.6</v>
       </c>
       <c r="K18">
-        <v>10.6</v>
+        <v>9.5</v>
       </c>
       <c r="L18">
         <v>20.5</v>
@@ -1384,7 +1391,7 @@
         <v>5.6</v>
       </c>
       <c r="N18">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O18">
         <v>6.7</v>
@@ -1422,7 +1429,7 @@
         <v>62.1</v>
       </c>
       <c r="K19">
-        <v>38.4</v>
+        <v>39.1</v>
       </c>
       <c r="L19">
         <v>101</v>
@@ -1431,10 +1438,10 @@
         <v>32.700000000000003</v>
       </c>
       <c r="N19">
-        <v>18.399999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="O19">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1469,7 +1476,7 @@
         <v>6.3</v>
       </c>
       <c r="K20">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L20">
         <v>15.2</v>
@@ -1478,7 +1485,7 @@
         <v>-0.8</v>
       </c>
       <c r="N20">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="O20">
         <v>4.7</v>
@@ -1516,7 +1523,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K21">
-        <v>66.8</v>
+        <v>29.7</v>
       </c>
       <c r="L21">
         <v>49</v>
@@ -1525,10 +1532,10 @@
         <v>17</v>
       </c>
       <c r="N21">
-        <v>53.4</v>
+        <v>51.9</v>
       </c>
       <c r="O21">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1568,7 +1575,7 @@
         <v>89.8</v>
       </c>
       <c r="K23">
-        <v>117.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="L23">
         <v>168.4</v>
@@ -1577,10 +1584,10 @@
         <v>54.2</v>
       </c>
       <c r="N23">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="O23">
-        <v>91.3</v>
+        <v>88.4</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1615,7 +1622,7 @@
         <v>-11.7</v>
       </c>
       <c r="K24">
-        <v>10.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L24">
         <v>20.5</v>
@@ -1624,7 +1631,7 @@
         <v>5.6</v>
       </c>
       <c r="N24">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O24">
         <v>6.4</v>
@@ -1662,7 +1669,7 @@
         <v>59.2</v>
       </c>
       <c r="K25">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="L25">
         <v>85</v>
@@ -1671,10 +1678,10 @@
         <v>32.299999999999997</v>
       </c>
       <c r="N25">
-        <v>16.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="O25">
-        <v>40.1</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1718,10 +1725,10 @@
         <v>-0.8</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O26">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1756,7 +1763,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K27">
-        <v>66.900000000000006</v>
+        <v>29.7</v>
       </c>
       <c r="L27">
         <v>49</v>
@@ -1765,10 +1772,10 @@
         <v>17</v>
       </c>
       <c r="N27">
-        <v>53.3</v>
+        <v>51.5</v>
       </c>
       <c r="O27">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1808,7 +1815,7 @@
         <v>85.5</v>
       </c>
       <c r="K29">
-        <v>108.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="L29">
         <v>161.19999999999999</v>
@@ -1817,10 +1824,10 @@
         <v>37.6</v>
       </c>
       <c r="N29">
-        <v>75.599999999999994</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="O29">
-        <v>83.2</v>
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1855,7 +1862,7 @@
         <v>-13.7</v>
       </c>
       <c r="K30">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="L30">
         <v>20.5</v>
@@ -1864,10 +1871,10 @@
         <v>5.6</v>
       </c>
       <c r="N30">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O30">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1902,7 +1909,7 @@
         <v>56.2</v>
       </c>
       <c r="K31">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="L31">
         <v>76.900000000000006</v>
@@ -1911,10 +1918,10 @@
         <v>10.4</v>
       </c>
       <c r="N31">
-        <v>15.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O31">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1949,7 +1956,7 @@
         <v>6.4</v>
       </c>
       <c r="K32">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="L32">
         <v>14.9</v>
@@ -1958,7 +1965,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N32">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="O32">
         <v>5.8</v>
@@ -1996,7 +2003,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K33">
-        <v>66.7</v>
+        <v>29.5</v>
       </c>
       <c r="L33">
         <v>49</v>
@@ -2005,10 +2012,10 @@
         <v>17</v>
       </c>
       <c r="N33">
-        <v>53.2</v>
+        <v>51.1</v>
       </c>
       <c r="O33">
-        <v>40</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2048,7 +2055,7 @@
         <v>85.5</v>
       </c>
       <c r="K35">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="L35">
         <v>156.30000000000001</v>
@@ -2057,10 +2064,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="N35">
-        <v>74.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="O35">
-        <v>77.7</v>
+        <v>74.599999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2095,7 +2102,7 @@
         <v>-13.7</v>
       </c>
       <c r="K36">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="L36">
         <v>20.399999999999999</v>
@@ -2104,7 +2111,7 @@
         <v>5.6</v>
       </c>
       <c r="N36">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O36">
         <v>5.5</v>
@@ -2142,7 +2149,7 @@
         <v>56.2</v>
       </c>
       <c r="K37">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="L37">
         <v>72.099999999999994</v>
@@ -2151,10 +2158,10 @@
         <v>9.9</v>
       </c>
       <c r="N37">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="O37">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2189,7 +2196,7 @@
         <v>6.4</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L38">
         <v>14.9</v>
@@ -2198,7 +2205,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N38">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="O38">
         <v>6.7</v>
@@ -2236,7 +2243,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K39">
-        <v>66.7</v>
+        <v>29.5</v>
       </c>
       <c r="L39">
         <v>49</v>
@@ -2245,10 +2252,10 @@
         <v>17</v>
       </c>
       <c r="N39">
-        <v>53.1</v>
+        <v>50.7</v>
       </c>
       <c r="O39">
-        <v>40</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2288,7 +2295,7 @@
         <v>84.6</v>
       </c>
       <c r="K41">
-        <v>98.6</v>
+        <v>60.6</v>
       </c>
       <c r="L41">
         <v>156.4</v>
@@ -2297,10 +2304,10 @@
         <v>30.6</v>
       </c>
       <c r="N41">
-        <v>74.3</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="O41">
-        <v>71.8</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2335,7 +2342,7 @@
         <v>-13.7</v>
       </c>
       <c r="K42">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
         <v>20.399999999999999</v>
@@ -2344,10 +2351,10 @@
         <v>5.6</v>
       </c>
       <c r="N42">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2382,7 +2389,7 @@
         <v>54.3</v>
       </c>
       <c r="K43">
-        <v>18.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="L43">
         <v>72.099999999999994</v>
@@ -2391,7 +2398,7 @@
         <v>2.7</v>
       </c>
       <c r="N43">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="O43">
         <v>20.100000000000001</v>
@@ -2429,7 +2436,7 @@
         <v>7.4</v>
       </c>
       <c r="K44">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="L44">
         <v>14.9</v>
@@ -2438,10 +2445,10 @@
         <v>5.2</v>
       </c>
       <c r="N44">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="O44">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2476,7 +2483,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K45">
-        <v>66.7</v>
+        <v>29.5</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -2485,10 +2492,10 @@
         <v>17</v>
       </c>
       <c r="N45">
-        <v>53.1</v>
+        <v>50.5</v>
       </c>
       <c r="O45">
-        <v>40</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2528,7 +2535,7 @@
         <v>84.6</v>
       </c>
       <c r="K47">
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L47">
         <v>156.30000000000001</v>
@@ -2537,10 +2544,10 @@
         <v>30.5</v>
       </c>
       <c r="N47">
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O47">
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2575,7 +2582,7 @@
         <v>-13.7</v>
       </c>
       <c r="K48">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L48">
         <v>20.399999999999999</v>
@@ -2584,10 +2591,10 @@
         <v>5.6</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2622,7 +2629,7 @@
         <v>54.3</v>
       </c>
       <c r="K49">
-        <v>16.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="L49">
         <v>72</v>
@@ -2631,10 +2638,10 @@
         <v>2.7</v>
       </c>
       <c r="N49">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="O49">
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2678,10 +2685,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N50">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O50">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2716,7 +2723,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K51">
-        <v>66.8</v>
+        <v>29.6</v>
       </c>
       <c r="L51">
         <v>49</v>
@@ -2725,10 +2732,10 @@
         <v>17</v>
       </c>
       <c r="N51">
-        <v>53.1</v>
+        <v>50.5</v>
       </c>
       <c r="O51">
-        <v>40</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
@@ -2769,19 +2776,19 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$7,0+$T56,0)</f>
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$8,0+$T56,0)</f>
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$9,0+$T56,0)</f>
-        <v>40.9</v>
+        <v>38.1</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$5,0+$T56,0)</f>
-        <v>132.30000000000001</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -2797,19 +2804,19 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>63.8</v>
+        <v>64</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>40.299999999999997</v>
+        <v>37.5</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>115.7</v>
+        <v>113</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -2825,7 +2832,7 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -2833,11 +2840,11 @@
       </c>
       <c r="E58" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>101.6</v>
+        <v>98.7</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -2853,19 +2860,19 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>40.1</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>91.3</v>
+        <v>88.4</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -2877,11 +2884,11 @@
       </c>
       <c r="B60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -2889,11 +2896,11 @@
       </c>
       <c r="E60" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>36.9</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>83.2</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -2909,7 +2916,7 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -2917,11 +2924,11 @@
       </c>
       <c r="E61" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>36.9</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>77.7</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -2933,7 +2940,7 @@
       </c>
       <c r="B62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C62" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2941,15 +2948,15 @@
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>36.9</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>71.8</v>
+        <v>68.7</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -2961,23 +2968,23 @@
       </c>
       <c r="B63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="C63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>36.9</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>70.2</v>
+        <v>67</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -3069,7 +3076,7 @@
       </c>
       <c r="K67" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>157.30000000000001</v>
+        <v>119.9</v>
       </c>
       <c r="L67" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -3081,7 +3088,7 @@
       </c>
       <c r="N67" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>101.1</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3126,7 +3133,7 @@
       </c>
       <c r="K68" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>137.80000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="L68" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3138,7 +3145,7 @@
       </c>
       <c r="N68" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>88.8</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3183,7 +3190,7 @@
       </c>
       <c r="K69" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>126.1</v>
+        <v>88.4</v>
       </c>
       <c r="L69" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3195,7 +3202,7 @@
       </c>
       <c r="N69" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3240,7 +3247,7 @@
       </c>
       <c r="K70" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>117.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="L70" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3252,7 +3259,7 @@
       </c>
       <c r="N70" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3297,7 +3304,7 @@
       </c>
       <c r="K71" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>108.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="L71" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3309,7 +3316,7 @@
       </c>
       <c r="N71" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>75.599999999999994</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3354,7 +3361,7 @@
       </c>
       <c r="K72" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="L72" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3366,7 +3373,7 @@
       </c>
       <c r="N72" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>74.5</v>
+        <v>72.900000000000006</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3411,7 +3418,7 @@
       </c>
       <c r="K73" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>98.6</v>
+        <v>60.6</v>
       </c>
       <c r="L73" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3423,7 +3430,7 @@
       </c>
       <c r="N73" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>74.3</v>
+        <v>71.400000000000006</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3468,7 +3475,7 @@
       </c>
       <c r="K74" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L74" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -3480,7 +3487,7 @@
       </c>
       <c r="N74" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/stackcachesize.xlsx
+++ b/data/stackcachesize.xlsx
@@ -209,8 +209,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -300,7 +304,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -341,6 +345,8 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -381,6 +387,8 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -712,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
